--- a/python-excel-missing-values-demo.xlsx
+++ b/python-excel-missing-values-demo.xlsx
@@ -1,26 +1,126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27716"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4F67F9-BD2C-43AC-979B-E4577163DFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DB8540-284E-4043-A78D-DFB2A230E8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="2">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="2">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>penguins_df = xl(%P2%, headers=True)
+penguins_df.isna().sum()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>penguins_df.isna().sum() / len(penguins_df)</code>
+    </pythonScript>
+    <pythonScript>
+      <code>missing_data = penguins_df.isna().sum() / len(penguins_df)
+plt.figure(figsize=(10, 6))
+missing_data[missing_data &gt; 0].plot(kind='bar', color='blue', alpha=0.7)
+plt.title('Count of Missing Values Per Column in Penguins Dataset')
+plt.ylabel('Number of Missing Values')</code>
+    </pythonScript>
+    <pythonScript>
+      <code>sns.heatmap(penguins_df.isna(), cbar=False, cmap='viridis')
+plt.title('Heatmap of Missing Values in Penguins Dataset')</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="16">
   <si>
     <t>species</t>
   </si>
@@ -69,64 +169,6 @@
   <si>
     <t>Chinstrap</t>
   </si>
-  <si>
-    <t>penguins.describe()</t>
-  </si>
-  <si>
-    <t>penguins.replace(9, np.NaN)</t>
-  </si>
-  <si>
-    <t>penguins.isnull().sum()/len(penguins)</t>
-  </si>
-  <si>
-    <t>penguins_drop = penguins.dropna()
-penguins_drop.info()</t>
-  </si>
-  <si>
-    <t>import seaborn as sns</t>
-  </si>
-  <si>
-    <t>import matplotlib.pyplot as plt</t>
-  </si>
-  <si>
-    <t># Load the penguins dataset</t>
-  </si>
-  <si>
-    <t>penguins = sns.load_dataset('penguins')</t>
-  </si>
-  <si>
-    <t># Create a heatmap showing where missing values occur</t>
-  </si>
-  <si>
-    <t>plt.figure(figsize=(10, 6))</t>
-  </si>
-  <si>
-    <t>sns.heatmap(penguins.isnull(), cbar=False, cmap='viridis')</t>
-  </si>
-  <si>
-    <t>plt.title('Heatmap of Missing Values in Penguins Dataset')</t>
-  </si>
-  <si>
-    <t>plt.show()</t>
-  </si>
-  <si>
-    <t># Count missing values per column</t>
-  </si>
-  <si>
-    <t>missing_data = penguins.isnull().sum()</t>
-  </si>
-  <si>
-    <t># Plot the results</t>
-  </si>
-  <si>
-    <t>missing_data[missing_data &gt; 0].plot(kind='bar', color='blue', alpha=0.7)</t>
-  </si>
-  <si>
-    <t>plt.title('Count of Missing Values Per Column in Penguins Dataset')</t>
-  </si>
-  <si>
-    <t>plt.ylabel('Number of Missing Values')</t>
-  </si>
 </sst>
 </file>
 
@@ -174,9 +216,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,8 +254,183 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>383136</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF45FD4B-2456-B187-DF72-9D9C85F010EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!J22"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7186613" y="3800475"/>
+          <a:ext cx="2973936" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400779</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96AC32D-81CB-9921-8103-C28640C007FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="Sheet1!J36"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7186613" y="6334125"/>
+          <a:ext cx="3639279" cy="3619500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="2">
+  <rv s="0">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+</richValueRels>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87901AE0-9813-4F32-BF65-60C569F34EAC}" name="Table1" displayName="Table1" ref="A1:H345" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{87901AE0-9813-4F32-BF65-60C569F34EAC}" name="penguins" displayName="penguins" ref="A1:H345" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:H345" xr:uid="{87901AE0-9813-4F32-BF65-60C569F34EAC}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{79307CEC-E3CF-4482-86A3-5A0BC4D33D95}" name="species"/>
@@ -548,11 +763,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J345"/>
+  <dimension ref="A1:K345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -564,7 +777,7 @@
     <col min="7" max="8" width="6.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -615,11 +828,15 @@
       <c r="H2">
         <v>2007</v>
       </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J2" t="str" cm="1">
+        <f t="array" ref="J2:K9">_xlfn._xlws.PY(0,0,penguins[#All])</f>
+        <v>species</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -644,8 +861,14 @@
       <c r="H3">
         <v>2007</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J3" t="str">
+        <v>island</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -670,11 +893,14 @@
       <c r="H4">
         <v>2007</v>
       </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J4" t="str">
+        <v>bill_length_mm</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -684,8 +910,14 @@
       <c r="H5">
         <v>2007</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J5" t="str">
+        <v>bill_depth_mm</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -710,11 +942,14 @@
       <c r="H6">
         <v>2007</v>
       </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J6" t="str">
+        <v>flipper_length_mm</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -739,8 +974,14 @@
       <c r="H7">
         <v>2007</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="J7" t="str">
+        <v>body_mass_g</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -765,11 +1006,14 @@
       <c r="H8">
         <v>2007</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J8" t="str">
+        <v>sex</v>
+      </c>
+      <c r="K8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -794,8 +1038,14 @@
       <c r="H9">
         <v>2007</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J9" t="str">
+        <v>year</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -818,7 +1068,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -841,7 +1091,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -863,11 +1113,15 @@
       <c r="H12">
         <v>2007</v>
       </c>
-      <c r="J12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J12" t="str" cm="1">
+        <f t="array" ref="J12:K19">_xlfn._xlws.PY(1,0)</f>
+        <v>species</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -889,11 +1143,14 @@
       <c r="H13">
         <v>2007</v>
       </c>
-      <c r="J13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J13" t="str">
+        <v>island</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -918,8 +1175,14 @@
       <c r="H14">
         <v>2007</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J14" t="str">
+        <v>bill_length_mm</v>
+      </c>
+      <c r="K14" s="2">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -944,11 +1207,14 @@
       <c r="H15">
         <v>2007</v>
       </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J15" t="str">
+        <v>bill_depth_mm</v>
+      </c>
+      <c r="K15" s="2">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -973,11 +1239,14 @@
       <c r="H16">
         <v>2007</v>
       </c>
-      <c r="J16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J16" t="str">
+        <v>flipper_length_mm</v>
+      </c>
+      <c r="K16" s="2">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1002,8 +1271,14 @@
       <c r="H17">
         <v>2007</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J17" t="str">
+        <v>body_mass_g</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5.8139534883720929E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1028,11 +1303,14 @@
       <c r="H18">
         <v>2007</v>
       </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J18" t="str">
+        <v>sex</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.1976744186046513E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1057,11 +1335,14 @@
       <c r="H19">
         <v>2007</v>
       </c>
-      <c r="J19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J19" t="str">
+        <v>year</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1086,11 +1367,8 @@
       <c r="H20">
         <v>2007</v>
       </c>
-      <c r="J20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1115,11 +1393,8 @@
       <c r="H21">
         <v>2007</v>
       </c>
-      <c r="J21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1144,11 +1419,12 @@
       <c r="H22">
         <v>2007</v>
       </c>
-      <c r="J22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="J22" t="e" cm="1" vm="1">
+        <f t="array" ref="J22">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1174,7 +1450,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1476,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1226,7 +1502,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1251,11 +1527,8 @@
       <c r="H26">
         <v>2007</v>
       </c>
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1280,11 +1553,8 @@
       <c r="H27">
         <v>2007</v>
       </c>
-      <c r="J27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1310,7 +1580,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1335,11 +1605,8 @@
       <c r="H29">
         <v>2007</v>
       </c>
-      <c r="J29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1364,11 +1631,8 @@
       <c r="H30">
         <v>2007</v>
       </c>
-      <c r="J30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1393,11 +1657,8 @@
       <c r="H31">
         <v>2007</v>
       </c>
-      <c r="J31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1422,9 +1683,6 @@
       <c r="H32">
         <v>2007</v>
       </c>
-      <c r="J32" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
@@ -1451,9 +1709,6 @@
       <c r="H33">
         <v>2007</v>
       </c>
-      <c r="J33" t="s">
-        <v>34</v>
-      </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
@@ -1480,9 +1735,6 @@
       <c r="H34">
         <v>2007</v>
       </c>
-      <c r="J34" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
@@ -1534,6 +1786,10 @@
       </c>
       <c r="H36">
         <v>2007</v>
+      </c>
+      <c r="J36" t="e" cm="1" vm="2">
+        <f t="array" ref="J36">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
@@ -9542,8 +9798,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>